--- a/Automation/MasterSheet.xlsx
+++ b/Automation/MasterSheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="820">
   <si>
     <t>TC_ID</t>
   </si>
@@ -2608,7 +2608,54 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="576">
+  <dxfs count="581">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7907,10 +7954,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7976,35 +8023,76 @@
         <v>819</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="7" priority="173"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="6" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="42"/>
+  <conditionalFormatting sqref="F4:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="12" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="11" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="4" priority="11" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9050,10 +9138,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C46">
-    <cfRule type="cellIs" dxfId="575" priority="469" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="470" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="469" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="579" priority="470" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10063,98 +10151,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="573" priority="23" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="23" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="24" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="571" priority="21" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="21" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="575" priority="22" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="569" priority="19" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="19" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="573" priority="20" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="567" priority="17" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="17" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="571" priority="18" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="565" priority="15" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="15" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="569" priority="16" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="563" priority="13" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="13" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="567" priority="14" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="561" priority="11" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="11" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="565" priority="12" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="559" priority="9" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="9" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="563" priority="10" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="557" priority="7" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="7" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="8" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="555" priority="5" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="5" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="6" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="553" priority="3" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="3" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="557" priority="4" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C44">
-    <cfRule type="cellIs" dxfId="551" priority="1" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="1" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="555" priority="2" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11645,98 +11733,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="549" priority="23" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="23" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="553" priority="24" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="547" priority="21" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="21" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="551" priority="22" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="545" priority="19" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="19" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="549" priority="20" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="543" priority="17" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="17" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="547" priority="18" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="541" priority="15" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="15" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="545" priority="16" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="539" priority="13" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="13" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="543" priority="14" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="537" priority="11" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="11" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="541" priority="12" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="535" priority="9" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="9" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="539" priority="10" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="533" priority="7" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="7" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="537" priority="8" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="531" priority="5" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="5" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="535" priority="6" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="529" priority="3" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="3" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="533" priority="4" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="cellIs" dxfId="527" priority="1" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="1" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="531" priority="2" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11863,50 +11951,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="cellIs" dxfId="525" priority="11" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="11" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="529" priority="12" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="cellIs" dxfId="523" priority="9" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="9" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="527" priority="10" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="cellIs" dxfId="521" priority="7" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="7" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="525" priority="8" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="cellIs" dxfId="519" priority="5" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="5" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="523" priority="6" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="cellIs" dxfId="517" priority="3" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="3" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="521" priority="4" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="cellIs" dxfId="515" priority="1" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="1" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="519" priority="2" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12674,1922 +12762,1922 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="513" priority="479" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="480" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="479" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="517" priority="480" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="511" priority="477" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="478" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="477" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="515" priority="478" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="509" priority="475" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="476" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="475" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="513" priority="476" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="507" priority="473" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="474" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="473" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="474" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="505" priority="471" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="472" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="471" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="509" priority="472" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="503" priority="469" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="470" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="469" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="507" priority="470" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="501" priority="467" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="468" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="467" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="468" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="499" priority="465" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="466" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="465" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="503" priority="466" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="497" priority="463" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="464" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="463" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="501" priority="464" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="495" priority="461" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="462" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="461" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="462" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="493" priority="459" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="460" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="459" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="497" priority="460" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="491" priority="457" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="458" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="457" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="495" priority="458" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="489" priority="455" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="456" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="455" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="493" priority="456" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="487" priority="453" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="454" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="453" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="491" priority="454" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="485" priority="451" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="452" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="451" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="489" priority="452" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="483" priority="449" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="450" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="449" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="487" priority="450" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="481" priority="447" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="448" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="447" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="485" priority="448" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="479" priority="445" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="446" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="445" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="446" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="477" priority="443" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="444" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="443" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="444" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="475" priority="441" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="442" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="441" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="479" priority="442" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="473" priority="439" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="440" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="439" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="477" priority="440" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="471" priority="437" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="438" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="437" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="438" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="469" priority="435" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="436" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="435" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="473" priority="436" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="467" priority="433" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="434" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="433" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="471" priority="434" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="465" priority="431" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="432" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="431" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="432" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="463" priority="429" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="430" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="429" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="467" priority="430" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="461" priority="427" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="428" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="427" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="465" priority="428" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="459" priority="425" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="426" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="425" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="426" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="457" priority="423" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="424" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="423" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="461" priority="424" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="455" priority="421" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="422" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="421" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="459" priority="422" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C33">
-    <cfRule type="cellIs" dxfId="453" priority="419" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="420" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="419" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="420" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C33">
-    <cfRule type="cellIs" dxfId="451" priority="417" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="418" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="417" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="455" priority="418" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C33">
-    <cfRule type="cellIs" dxfId="449" priority="415" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="416" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="415" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="453" priority="416" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C33">
-    <cfRule type="cellIs" dxfId="447" priority="413" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="414" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="413" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="414" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C33">
-    <cfRule type="cellIs" dxfId="445" priority="411" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="412" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="411" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="449" priority="412" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C33">
-    <cfRule type="cellIs" dxfId="443" priority="409" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="410" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="409" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="410" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="441" priority="407" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="408" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="407" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="408" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="439" priority="405" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="406" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="405" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="443" priority="406" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="437" priority="403" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="404" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="403" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="441" priority="404" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="435" priority="401" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="402" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="401" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="402" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="433" priority="399" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="400" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="399" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="437" priority="400" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="431" priority="397" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="398" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="397" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="398" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="429" priority="395" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="396" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="395" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="396" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="427" priority="393" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="394" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="393" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="431" priority="394" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="425" priority="391" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="392" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="391" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="429" priority="392" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="423" priority="389" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="390" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="389" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="390" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="421" priority="387" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="388" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="387" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="425" priority="388" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="419" priority="385" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="386" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="385" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="386" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="417" priority="383" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="384" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="383" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="384" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="415" priority="381" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="382" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="381" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="419" priority="382" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="413" priority="379" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="380" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="379" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="417" priority="380" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="411" priority="377" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="378" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="377" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="378" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="409" priority="375" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="376" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="375" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="413" priority="376" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="407" priority="373" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="374" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="373" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="374" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C14">
-    <cfRule type="cellIs" dxfId="405" priority="371" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="372" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="371" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="372" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C14">
-    <cfRule type="cellIs" dxfId="403" priority="369" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="370" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="369" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="370" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C14">
-    <cfRule type="cellIs" dxfId="401" priority="367" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="368" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="367" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="368" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C14">
-    <cfRule type="cellIs" dxfId="399" priority="365" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="366" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="365" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="366" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C14">
-    <cfRule type="cellIs" dxfId="397" priority="363" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="364" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="363" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="401" priority="364" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C14">
-    <cfRule type="cellIs" dxfId="395" priority="361" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="362" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="361" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="399" priority="362" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="393" priority="359" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="360" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="359" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="360" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="391" priority="357" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="358" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="357" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="395" priority="358" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="389" priority="355" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="356" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="355" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="356" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="387" priority="353" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="354" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="353" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="354" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="385" priority="351" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="352" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="351" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="389" priority="352" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="383" priority="349" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="350" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="349" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="387" priority="350" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="cellIs" dxfId="381" priority="347" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="348" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="347" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="348" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="cellIs" dxfId="379" priority="345" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="346" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="345" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="383" priority="346" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="cellIs" dxfId="377" priority="343" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="344" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="343" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="344" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="cellIs" dxfId="375" priority="341" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="342" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="341" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="342" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="cellIs" dxfId="373" priority="339" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="340" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="339" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="340" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="cellIs" dxfId="371" priority="337" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="338" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="337" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="375" priority="338" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="369" priority="335" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="336" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="335" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="336" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="367" priority="333" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="334" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="333" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="371" priority="334" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="365" priority="331" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="332" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="331" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="332" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="363" priority="329" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="330" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="329" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="330" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="361" priority="327" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="328" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="327" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="365" priority="328" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="359" priority="325" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="326" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="325" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="363" priority="326" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="357" priority="323" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="324" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="323" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="324" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="355" priority="321" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="322" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="321" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="359" priority="322" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="353" priority="319" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="320" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="319" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="320" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="351" priority="317" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="318" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="317" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="318" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="349" priority="315" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="316" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="315" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="316" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="347" priority="313" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="314" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="313" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="314" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C33">
-    <cfRule type="cellIs" dxfId="345" priority="311" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="312" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="311" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="312" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C33">
-    <cfRule type="cellIs" dxfId="343" priority="309" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="310" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="309" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="347" priority="310" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C33">
-    <cfRule type="cellIs" dxfId="341" priority="307" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="308" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="307" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="308" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C33">
-    <cfRule type="cellIs" dxfId="339" priority="305" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="306" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="305" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="306" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C33">
-    <cfRule type="cellIs" dxfId="337" priority="303" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="304" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="303" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="304" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C33">
-    <cfRule type="cellIs" dxfId="335" priority="301" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="302" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="301" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="302" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C33">
-    <cfRule type="cellIs" dxfId="333" priority="299" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="300" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="299" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="300" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C33">
-    <cfRule type="cellIs" dxfId="331" priority="297" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="298" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="297" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="335" priority="298" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C33">
-    <cfRule type="cellIs" dxfId="329" priority="295" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="296" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="295" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="296" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C33">
-    <cfRule type="cellIs" dxfId="327" priority="293" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="294" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="293" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="294" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C33">
-    <cfRule type="cellIs" dxfId="325" priority="291" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="292" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="291" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="292" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C33">
-    <cfRule type="cellIs" dxfId="323" priority="289" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="290" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="289" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="290" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C33">
-    <cfRule type="cellIs" dxfId="321" priority="287" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="288" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="287" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="288" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C33">
-    <cfRule type="cellIs" dxfId="319" priority="285" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="286" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="285" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="323" priority="286" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C33">
-    <cfRule type="cellIs" dxfId="317" priority="283" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="284" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="283" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="284" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C33">
-    <cfRule type="cellIs" dxfId="315" priority="281" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="282" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="281" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="282" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C33">
-    <cfRule type="cellIs" dxfId="313" priority="279" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="280" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="279" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="280" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C33">
-    <cfRule type="cellIs" dxfId="311" priority="277" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="278" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="277" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="278" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="309" priority="275" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="276" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="275" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="276" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="307" priority="273" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="274" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="273" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="311" priority="274" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="305" priority="271" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="272" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="271" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="272" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="303" priority="269" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="270" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="269" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="270" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="301" priority="267" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="268" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="267" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="268" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="299" priority="265" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="266" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="265" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="266" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C33">
-    <cfRule type="cellIs" dxfId="297" priority="263" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="264" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="263" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="264" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C33">
-    <cfRule type="cellIs" dxfId="295" priority="261" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="262" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="261" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="262" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C33">
-    <cfRule type="cellIs" dxfId="293" priority="259" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="260" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="259" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="260" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C33">
-    <cfRule type="cellIs" dxfId="291" priority="257" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="258" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="257" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="258" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C33">
-    <cfRule type="cellIs" dxfId="289" priority="255" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="256" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="255" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="256" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C33">
-    <cfRule type="cellIs" dxfId="287" priority="253" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="254" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="253" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="254" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="285" priority="251" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="252" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="251" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="252" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="283" priority="249" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="250" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="249" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="250" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="281" priority="247" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="248" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="247" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="248" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="279" priority="245" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="246" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="245" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="246" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="277" priority="243" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="244" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="243" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="244" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="275" priority="241" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="242" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="241" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="242" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="273" priority="239" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="240" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="239" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="240" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="271" priority="237" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="238" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="237" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="238" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="269" priority="235" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="236" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="235" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="236" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="267" priority="233" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="234" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="233" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="234" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="265" priority="231" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="232" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="231" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="232" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="263" priority="229" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="230" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="229" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="230" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="261" priority="227" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="228" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="227" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="228" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="259" priority="225" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="226" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="225" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="226" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="257" priority="223" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="224" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="223" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="224" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="255" priority="221" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="222" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="221" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="222" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="253" priority="219" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="220" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="219" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="220" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="251" priority="217" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="218" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="217" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="218" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="249" priority="215" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="216" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="215" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="216" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="247" priority="213" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="214" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="213" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="214" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="245" priority="211" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="212" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="211" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="212" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="243" priority="209" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="210" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="209" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="210" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="241" priority="207" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="208" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="207" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="208" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="239" priority="205" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="206" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="205" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="206" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="237" priority="203" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="204" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="203" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="204" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="235" priority="201" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="202" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="201" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="202" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="233" priority="199" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="200" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="199" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="200" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="231" priority="197" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="198" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="197" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="198" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="229" priority="195" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="196" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="195" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="196" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="227" priority="193" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="194" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="193" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="194" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="225" priority="191" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="192" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="191" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="192" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="223" priority="189" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="190" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="189" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="190" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="221" priority="187" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="188" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="187" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="188" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="219" priority="185" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="186" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="185" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="186" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="217" priority="183" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="184" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="183" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="184" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="215" priority="181" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="181" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="182" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="213" priority="179" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="179" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="180" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="211" priority="177" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="178" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="177" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="178" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="209" priority="175" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="176" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="175" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="176" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="207" priority="173" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="173" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="174" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="205" priority="171" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="171" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="172" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="203" priority="169" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="170" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="169" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="170" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="201" priority="167" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="167" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="168" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="199" priority="165" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="166" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="165" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="166" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="197" priority="163" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="164" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="163" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="164" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="195" priority="161" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="161" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="162" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="193" priority="159" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="159" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="160" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="191" priority="157" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="157" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="158" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="189" priority="155" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="155" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="156" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="187" priority="153" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="154" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="153" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="154" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="185" priority="151" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="151" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="152" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="183" priority="149" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="149" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="150" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="181" priority="147" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="147" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="148" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="179" priority="145" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="145" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="146" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="177" priority="143" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="143" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="144" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="175" priority="141" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="141" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="142" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="173" priority="139" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="139" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="140" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="171" priority="137" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="138" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="137" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="138" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="169" priority="135" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="135" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="136" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="167" priority="133" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="133" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="134" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="165" priority="131" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="131" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="132" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="163" priority="129" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="129" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="130" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="161" priority="127" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="127" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="128" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="159" priority="125" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="125" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="126" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="157" priority="123" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="123" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="124" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="155" priority="121" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="121" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="122" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="153" priority="119" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="119" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="120" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="151" priority="117" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="117" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="118" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="149" priority="115" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="115" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="116" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="147" priority="113" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="113" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="114" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="145" priority="111" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="111" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="112" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="143" priority="109" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="109" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="110" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="141" priority="107" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="107" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="108" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="139" priority="105" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="105" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="106" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="137" priority="103" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="103" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="104" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="135" priority="101" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="101" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="102" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="133" priority="99" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="99" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="100" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="131" priority="97" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="97" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="98" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="129" priority="95" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="95" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="96" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="127" priority="93" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="93" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="94" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="125" priority="91" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="91" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="92" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="123" priority="89" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="89" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="90" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="121" priority="87" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="87" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="88" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="119" priority="85" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="85" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="86" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="117" priority="83" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="83" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="84" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="115" priority="81" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="81" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="82" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="113" priority="79" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="79" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="80" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="111" priority="77" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="77" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="78" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="109" priority="75" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="75" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="76" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="107" priority="73" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="73" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="74" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="105" priority="71" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="71" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="72" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="103" priority="69" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="69" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="70" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="101" priority="67" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="67" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="68" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="99" priority="65" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="65" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="66" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="97" priority="63" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="63" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="64" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="cellIs" dxfId="95" priority="61" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="61" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="62" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="93" priority="59" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="59" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="60" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="91" priority="57" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="57" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="58" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="89" priority="55" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="55" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="56" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="87" priority="53" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="53" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="54" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="85" priority="51" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="51" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="52" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="83" priority="49" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="49" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="50" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="81" priority="47" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="47" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="48" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="79" priority="45" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="45" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="46" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="77" priority="43" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="43" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="44" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="75" priority="41" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="41" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="42" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="73" priority="39" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="39" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="40" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="71" priority="37" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="37" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="38" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="69" priority="35" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="35" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="36" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="67" priority="33" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="33" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="34" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="65" priority="31" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="31" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="32" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="63" priority="29" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="29" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="30" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="61" priority="27" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="27" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="28" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="59" priority="25" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="25" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="26" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="57" priority="23" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="23" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="24" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="55" priority="21" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="21" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="22" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="53" priority="19" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="19" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="20" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="51" priority="17" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="17" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="18" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="49" priority="15" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="15" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="16" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="47" priority="13" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="13" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="14" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="11" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="12" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="43" priority="9" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="9" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="10" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="41" priority="7" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="7" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="8" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="39" priority="5" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="6" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="4" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16029,10 +16117,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C42">
-    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="23" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="24" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16489,98 +16577,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="23" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="24" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="21" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="22" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="27" priority="19" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="19" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="20" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="17" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="18" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="21" priority="13" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
